--- a/guide/知行101环境搭建说明.xlsx
+++ b/guide/知行101环境搭建说明.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="环境搭建" sheetId="1" r:id="rId1"/>
+    <sheet name="git使用" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <r>
       <t>Step1</t>
@@ -221,6 +222,32 @@
       <t>账号和密码</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、上传代码到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>github</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -4420,6 +4447,1882 @@
             <a:t>OK</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="361950"/>
+          <a:ext cx="13011150" cy="6877050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="7962900"/>
+          <a:ext cx="13011150" cy="6877050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8496300" y="2886076"/>
+          <a:ext cx="847725" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8486775" y="10458450"/>
+          <a:ext cx="847725" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="下箭头 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6638925" y="5857876"/>
+          <a:ext cx="1143000" cy="1838324"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="15925800"/>
+          <a:ext cx="13011150" cy="7315200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="下箭头 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6543675" y="13830300"/>
+          <a:ext cx="1143000" cy="1838324"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4972050" y="16640175"/>
+          <a:ext cx="2400300" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="24612600"/>
+          <a:ext cx="13011150" cy="7315200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="下箭头 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6229350" y="22564725"/>
+          <a:ext cx="1143000" cy="1838324"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="矩形标注 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9820275" y="1714500"/>
+          <a:ext cx="2314575" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -62808"/>
+            <a:gd name="adj2" fmla="val 99709"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>修改代码</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矩形标注 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7858125" y="15354300"/>
+          <a:ext cx="2314575" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -62808"/>
+            <a:gd name="adj2" fmla="val 99709"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>右击工程，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Team=&gt;Commit</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矩形标注 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8543925" y="27746325"/>
+          <a:ext cx="2314575" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -62808"/>
+            <a:gd name="adj2" fmla="val 99709"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>右击</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>需要</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>commit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的文件，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Add</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> to Index</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1029" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="32937450"/>
+          <a:ext cx="13011150" cy="6877050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="下箭头 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6086475" y="30861000"/>
+          <a:ext cx="1143000" cy="1838324"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="矩形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6781800" y="29079825"/>
+          <a:ext cx="1333500" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="矩形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3571874" y="38376225"/>
+          <a:ext cx="2981325" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="矩形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8543926" y="36947475"/>
+          <a:ext cx="1714500" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="矩形标注 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4933950" y="36776025"/>
+          <a:ext cx="2314575" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -24948"/>
+            <a:gd name="adj2" fmla="val 140406"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>需要</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>commit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的文件被添加到了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Staged</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> Changes</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="矩形标注 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7734301" y="34366200"/>
+          <a:ext cx="3181350" cy="1685925"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 4992"/>
+            <a:gd name="adj2" fmla="val 95208"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>上传文件时提交信息必须写，尽可能描述清楚当前</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>commit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>所做的修改，修改原因</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>不同</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的文件可以分多次</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>commit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>到本地仓库，写好注释，然后一次</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>push</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>到远程仓库</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="矩形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12011025" y="39109650"/>
+          <a:ext cx="1609725" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="矩形标注 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10639425" y="36957000"/>
+          <a:ext cx="2314575" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 35134"/>
+            <a:gd name="adj2" fmla="val 177615"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>选好需要</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>commit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的文件并写好注释信息后单击</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>commit</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1030" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="40900350"/>
+          <a:ext cx="3571875" cy="5400675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="矩形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="41643300"/>
+          <a:ext cx="3343275" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="矩形标注 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3676650" y="39871650"/>
+          <a:ext cx="2314575" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -49639"/>
+            <a:gd name="adj2" fmla="val 154360"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>本地仓库相对于远程仓库有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>个变化</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1031" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="47415450"/>
+          <a:ext cx="13011150" cy="7315200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="矩形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7058026" y="48520350"/>
+          <a:ext cx="1314450" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="矩形标注 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8105775" y="46624875"/>
+          <a:ext cx="2314575" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -49639"/>
+            <a:gd name="adj2" fmla="val 154360"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>单击</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Push</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> to Upstream</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1032" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="55559325"/>
+          <a:ext cx="6191250" cy="3924300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>313</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="矩形 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="56207025"/>
+          <a:ext cx="3714750" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>308</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="矩形标注 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4476749" y="54940200"/>
+          <a:ext cx="2314575" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -47581"/>
+            <a:gd name="adj2" fmla="val 92732"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>push</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>成功，如果</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>push</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>失败提示当前本地版本库不是最新，就</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>pull</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>一下</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4781,4 +6684,25 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>